--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CVCode\OCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeWorkspace\OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C2060-8D21-4751-B35E-8F13FA5CD232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F70A80-5B59-4491-92FF-17C8DB8FE041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+  <si>
+    <t>姓名</t>
+  </si>
   <si>
     <t>测试号</t>
   </si>
@@ -257,15 +260,228 @@
   </si>
   <si>
     <t>检查结论</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据图像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨会琴</t>
+  </si>
+  <si>
+    <t>16889648-19</t>
+  </si>
+  <si>
+    <t>1973315</t>
+  </si>
+  <si>
+    <t>1957/11/30</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>160Cm</t>
+  </si>
+  <si>
+    <t>73kg</t>
+  </si>
+  <si>
+    <t>66岁</t>
+  </si>
+  <si>
+    <t>24/3/04</t>
+  </si>
+  <si>
+    <t>16:05:20"</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>138.8</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>53.44</t>
+  </si>
+  <si>
+    <t>267.2</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>38.67</t>
+  </si>
+  <si>
+    <t>370.8</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>70.4</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>89.5</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>87.4</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>75.68</t>
+  </si>
+  <si>
+    <t>76.56</t>
+  </si>
+  <si>
+    <t>70.78</t>
+  </si>
+  <si>
+    <t>92.5</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>88.6</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>75.9</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>40.6</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>84.80</t>
+  </si>
+  <si>
+    <t>56.96</t>
+  </si>
+  <si>
+    <t>67.2</t>
+  </si>
+  <si>
+    <t>49.26</t>
+  </si>
+  <si>
+    <t>58.1</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>73.2</t>
+  </si>
+  <si>
+    <t>41.40</t>
+  </si>
+  <si>
+    <t>42.64</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>74.8</t>
+  </si>
+  <si>
+    <t>55.66</t>
+  </si>
+  <si>
+    <t>56.70</t>
+  </si>
+  <si>
+    <t>101.9</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>88.1</t>
   </si>
 </sst>
 </file>
@@ -636,339 +852,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BX17" sqref="BX17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="21.625" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
-    <col min="19" max="19" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="15.125" customWidth="1"/>
-    <col min="22" max="22" width="21.75" customWidth="1"/>
-    <col min="23" max="23" width="19.5" customWidth="1"/>
-    <col min="24" max="24" width="13.375" customWidth="1"/>
-    <col min="25" max="25" width="24.875" customWidth="1"/>
-    <col min="26" max="26" width="15.375" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+    <col min="22" max="22" width="21.77734375" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="24.88671875" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" customWidth="1"/>
     <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="28" max="28" width="24.5" customWidth="1"/>
-    <col min="29" max="29" width="15.375" customWidth="1"/>
-    <col min="30" max="30" width="16.125" customWidth="1"/>
-    <col min="31" max="31" width="20.5" customWidth="1"/>
-    <col min="32" max="32" width="16.625" customWidth="1"/>
-    <col min="33" max="33" width="15.625" customWidth="1"/>
-    <col min="34" max="34" width="23.5" customWidth="1"/>
-    <col min="35" max="35" width="22.25" customWidth="1"/>
-    <col min="36" max="36" width="24.5" customWidth="1"/>
-    <col min="37" max="37" width="34.625" customWidth="1"/>
-    <col min="38" max="38" width="29.5" customWidth="1"/>
-    <col min="39" max="39" width="28.625" customWidth="1"/>
-    <col min="40" max="40" width="33.875" customWidth="1"/>
-    <col min="41" max="41" width="18.625" customWidth="1"/>
-    <col min="42" max="42" width="23.375" customWidth="1"/>
-    <col min="43" max="43" width="28.5" customWidth="1"/>
-    <col min="44" max="44" width="20.5" customWidth="1"/>
-    <col min="45" max="45" width="25.25" customWidth="1"/>
-    <col min="46" max="46" width="29.125" customWidth="1"/>
-    <col min="47" max="47" width="22.5" customWidth="1"/>
-    <col min="48" max="48" width="21.75" customWidth="1"/>
-    <col min="49" max="49" width="25.5" customWidth="1"/>
-    <col min="50" max="50" width="22.5" customWidth="1"/>
+    <col min="28" max="28" width="24.44140625" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" customWidth="1"/>
+    <col min="30" max="30" width="16.109375" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" customWidth="1"/>
+    <col min="32" max="32" width="16.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="23.44140625" customWidth="1"/>
+    <col min="35" max="35" width="22.21875" customWidth="1"/>
+    <col min="36" max="36" width="24.44140625" customWidth="1"/>
+    <col min="37" max="37" width="34.6640625" customWidth="1"/>
+    <col min="38" max="38" width="29.44140625" customWidth="1"/>
+    <col min="39" max="39" width="28.6640625" customWidth="1"/>
+    <col min="40" max="40" width="33.88671875" customWidth="1"/>
+    <col min="41" max="41" width="18.6640625" customWidth="1"/>
+    <col min="42" max="42" width="23.33203125" customWidth="1"/>
+    <col min="43" max="43" width="28.44140625" customWidth="1"/>
+    <col min="44" max="44" width="20.44140625" customWidth="1"/>
+    <col min="45" max="45" width="25.21875" customWidth="1"/>
+    <col min="46" max="46" width="29.109375" customWidth="1"/>
+    <col min="47" max="47" width="22.44140625" customWidth="1"/>
+    <col min="48" max="48" width="21.77734375" customWidth="1"/>
+    <col min="49" max="49" width="25.44140625" customWidth="1"/>
+    <col min="50" max="50" width="22.44140625" customWidth="1"/>
     <col min="51" max="51" width="25" customWidth="1"/>
-    <col min="52" max="52" width="28.5" customWidth="1"/>
-    <col min="53" max="53" width="25.875" customWidth="1"/>
-    <col min="54" max="54" width="23.75" customWidth="1"/>
-    <col min="55" max="55" width="32.5" customWidth="1"/>
-    <col min="56" max="56" width="19.75" customWidth="1"/>
-    <col min="57" max="57" width="19.875" customWidth="1"/>
-    <col min="58" max="58" width="23.5" customWidth="1"/>
-    <col min="59" max="59" width="24.25" customWidth="1"/>
-    <col min="60" max="60" width="22.75" customWidth="1"/>
-    <col min="61" max="61" width="30.5" customWidth="1"/>
-    <col min="62" max="62" width="27.375" customWidth="1"/>
-    <col min="63" max="63" width="21.5" customWidth="1"/>
-    <col min="64" max="64" width="26.125" customWidth="1"/>
-    <col min="65" max="65" width="23.125" customWidth="1"/>
-    <col min="66" max="66" width="23.25" customWidth="1"/>
-    <col min="67" max="67" width="30.25" customWidth="1"/>
-    <col min="68" max="68" width="24.25" customWidth="1"/>
-    <col min="69" max="69" width="24.375" customWidth="1"/>
-    <col min="70" max="70" width="28.375" customWidth="1"/>
-    <col min="71" max="71" width="28.5" customWidth="1"/>
-    <col min="72" max="72" width="25.25" customWidth="1"/>
-    <col min="73" max="73" width="29.25" customWidth="1"/>
-    <col min="74" max="74" width="28.875" customWidth="1"/>
-    <col min="75" max="75" width="20.5" customWidth="1"/>
-    <col min="76" max="76" width="32.25" customWidth="1"/>
-    <col min="77" max="77" width="21.375" customWidth="1"/>
-    <col min="78" max="78" width="20.125" customWidth="1"/>
-    <col min="79" max="79" width="29.25" customWidth="1"/>
-    <col min="80" max="80" width="13.75" customWidth="1"/>
-    <col min="81" max="81" width="14.5" customWidth="1"/>
+    <col min="52" max="52" width="28.44140625" customWidth="1"/>
+    <col min="53" max="53" width="25.88671875" customWidth="1"/>
+    <col min="54" max="54" width="23.77734375" customWidth="1"/>
+    <col min="55" max="55" width="32.44140625" customWidth="1"/>
+    <col min="56" max="56" width="19.77734375" customWidth="1"/>
+    <col min="57" max="57" width="19.88671875" customWidth="1"/>
+    <col min="58" max="58" width="23.44140625" customWidth="1"/>
+    <col min="59" max="59" width="24.21875" customWidth="1"/>
+    <col min="60" max="60" width="22.77734375" customWidth="1"/>
+    <col min="61" max="61" width="30.44140625" customWidth="1"/>
+    <col min="62" max="62" width="27.33203125" customWidth="1"/>
+    <col min="63" max="63" width="21.44140625" customWidth="1"/>
+    <col min="64" max="64" width="26.109375" customWidth="1"/>
+    <col min="65" max="65" width="23.109375" customWidth="1"/>
+    <col min="66" max="66" width="23.21875" customWidth="1"/>
+    <col min="67" max="67" width="30.21875" customWidth="1"/>
+    <col min="68" max="68" width="24.21875" customWidth="1"/>
+    <col min="69" max="69" width="24.33203125" customWidth="1"/>
+    <col min="70" max="70" width="28.33203125" customWidth="1"/>
+    <col min="71" max="71" width="28.44140625" customWidth="1"/>
+    <col min="72" max="72" width="25.21875" customWidth="1"/>
+    <col min="73" max="73" width="29.21875" customWidth="1"/>
+    <col min="74" max="74" width="28.88671875" customWidth="1"/>
+    <col min="75" max="75" width="20.44140625" customWidth="1"/>
+    <col min="76" max="76" width="32.21875" customWidth="1"/>
+    <col min="77" max="77" width="21.33203125" customWidth="1"/>
+    <col min="78" max="78" width="20.109375" customWidth="1"/>
+    <col min="79" max="79" width="29.21875" customWidth="1"/>
+    <col min="80" max="80" width="13.77734375" customWidth="1"/>
+    <col min="81" max="81" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -152,6 +152,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>80</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2762250" cy="10382250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,87 +475,87 @@
   </sheetPr>
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BX17" sqref="BX17"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BW2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="13.44140625" customWidth="1" min="2" max="2"/>
-    <col width="12.6640625" customWidth="1" min="3" max="3"/>
-    <col width="15.44140625" customWidth="1" min="4" max="4"/>
-    <col width="13.88671875" customWidth="1" min="5" max="5"/>
-    <col width="12.77734375" customWidth="1" min="6" max="6"/>
-    <col width="10.44140625" customWidth="1" min="12" max="12"/>
-    <col width="11.77734375" customWidth="1" min="13" max="13"/>
-    <col width="11.44140625" customWidth="1" min="14" max="14"/>
-    <col width="12.44140625" customWidth="1" min="15" max="15"/>
-    <col width="21.6640625" customWidth="1" min="16" max="16"/>
-    <col width="12.44140625" customWidth="1" min="17" max="17"/>
-    <col width="11.88671875" customWidth="1" min="18" max="18"/>
-    <col width="20.6640625" customWidth="1" min="19" max="19"/>
+    <col width="13.453125" customWidth="1" min="2" max="2"/>
+    <col width="12.6328125" customWidth="1" min="3" max="3"/>
+    <col width="15.453125" customWidth="1" min="4" max="4"/>
+    <col width="13.90625" customWidth="1" min="5" max="5"/>
+    <col width="12.81640625" customWidth="1" min="6" max="6"/>
+    <col width="10.453125" customWidth="1" min="12" max="12"/>
+    <col width="11.81640625" customWidth="1" min="13" max="13"/>
+    <col width="11.453125" customWidth="1" min="14" max="14"/>
+    <col width="12.453125" customWidth="1" min="15" max="15"/>
+    <col width="21.6328125" customWidth="1" min="16" max="16"/>
+    <col width="12.453125" customWidth="1" min="17" max="17"/>
+    <col width="11.90625" customWidth="1" min="18" max="18"/>
+    <col width="20.6328125" customWidth="1" min="19" max="19"/>
     <col width="17" customWidth="1" min="20" max="20"/>
-    <col width="15.109375" customWidth="1" min="21" max="21"/>
-    <col width="21.77734375" customWidth="1" min="22" max="22"/>
-    <col width="19.44140625" customWidth="1" min="23" max="23"/>
-    <col width="13.33203125" customWidth="1" min="24" max="24"/>
-    <col width="24.88671875" customWidth="1" min="25" max="25"/>
-    <col width="15.33203125" customWidth="1" min="26" max="26"/>
+    <col width="15.08984375" customWidth="1" min="21" max="21"/>
+    <col width="21.81640625" customWidth="1" min="22" max="22"/>
+    <col width="19.453125" customWidth="1" min="23" max="23"/>
+    <col width="13.36328125" customWidth="1" min="24" max="24"/>
+    <col width="24.90625" customWidth="1" min="25" max="25"/>
+    <col width="15.36328125" customWidth="1" min="26" max="26"/>
     <col width="16" customWidth="1" min="27" max="27"/>
-    <col width="24.44140625" customWidth="1" min="28" max="28"/>
-    <col width="15.33203125" customWidth="1" min="29" max="29"/>
-    <col width="16.109375" customWidth="1" min="30" max="30"/>
-    <col width="20.44140625" customWidth="1" min="31" max="31"/>
-    <col width="16.6640625" customWidth="1" min="32" max="32"/>
-    <col width="15.6640625" customWidth="1" min="33" max="33"/>
-    <col width="23.44140625" customWidth="1" min="34" max="34"/>
-    <col width="22.21875" customWidth="1" min="35" max="35"/>
-    <col width="24.44140625" customWidth="1" min="36" max="36"/>
-    <col width="34.6640625" customWidth="1" min="37" max="37"/>
-    <col width="29.44140625" customWidth="1" min="38" max="38"/>
-    <col width="28.6640625" customWidth="1" min="39" max="39"/>
-    <col width="33.88671875" customWidth="1" min="40" max="40"/>
-    <col width="18.6640625" customWidth="1" min="41" max="41"/>
-    <col width="23.33203125" customWidth="1" min="42" max="42"/>
-    <col width="28.44140625" customWidth="1" min="43" max="43"/>
-    <col width="20.44140625" customWidth="1" min="44" max="44"/>
-    <col width="25.21875" customWidth="1" min="45" max="45"/>
-    <col width="29.109375" customWidth="1" min="46" max="46"/>
-    <col width="22.44140625" customWidth="1" min="47" max="47"/>
-    <col width="21.77734375" customWidth="1" min="48" max="48"/>
-    <col width="25.44140625" customWidth="1" min="49" max="49"/>
-    <col width="22.44140625" customWidth="1" min="50" max="50"/>
+    <col width="24.453125" customWidth="1" min="28" max="28"/>
+    <col width="15.36328125" customWidth="1" min="29" max="29"/>
+    <col width="16.08984375" customWidth="1" min="30" max="30"/>
+    <col width="20.453125" customWidth="1" min="31" max="31"/>
+    <col width="16.6328125" customWidth="1" min="32" max="32"/>
+    <col width="15.6328125" customWidth="1" min="33" max="33"/>
+    <col width="23.453125" customWidth="1" min="34" max="34"/>
+    <col width="22.1796875" customWidth="1" min="35" max="35"/>
+    <col width="24.453125" customWidth="1" min="36" max="36"/>
+    <col width="34.6328125" customWidth="1" min="37" max="37"/>
+    <col width="29.453125" customWidth="1" min="38" max="38"/>
+    <col width="28.6328125" customWidth="1" min="39" max="39"/>
+    <col width="33.90625" customWidth="1" min="40" max="40"/>
+    <col width="18.6328125" customWidth="1" min="41" max="41"/>
+    <col width="23.36328125" customWidth="1" min="42" max="42"/>
+    <col width="28.453125" customWidth="1" min="43" max="43"/>
+    <col width="20.453125" customWidth="1" min="44" max="44"/>
+    <col width="25.1796875" customWidth="1" min="45" max="45"/>
+    <col width="29.08984375" customWidth="1" min="46" max="46"/>
+    <col width="22.453125" customWidth="1" min="47" max="47"/>
+    <col width="21.81640625" customWidth="1" min="48" max="48"/>
+    <col width="25.453125" customWidth="1" min="49" max="49"/>
+    <col width="22.453125" customWidth="1" min="50" max="50"/>
     <col width="25" customWidth="1" min="51" max="51"/>
-    <col width="28.44140625" customWidth="1" min="52" max="52"/>
-    <col width="25.88671875" customWidth="1" min="53" max="53"/>
-    <col width="23.77734375" customWidth="1" min="54" max="54"/>
-    <col width="32.44140625" customWidth="1" min="55" max="55"/>
-    <col width="19.77734375" customWidth="1" min="56" max="56"/>
-    <col width="19.88671875" customWidth="1" min="57" max="57"/>
-    <col width="23.44140625" customWidth="1" min="58" max="58"/>
-    <col width="24.21875" customWidth="1" min="59" max="59"/>
-    <col width="22.77734375" customWidth="1" min="60" max="60"/>
-    <col width="30.44140625" customWidth="1" min="61" max="61"/>
-    <col width="27.33203125" customWidth="1" min="62" max="62"/>
-    <col width="21.44140625" customWidth="1" min="63" max="63"/>
-    <col width="26.109375" customWidth="1" min="64" max="64"/>
-    <col width="23.109375" customWidth="1" min="65" max="65"/>
-    <col width="23.21875" customWidth="1" min="66" max="66"/>
-    <col width="30.21875" customWidth="1" min="67" max="67"/>
-    <col width="24.21875" customWidth="1" min="68" max="68"/>
-    <col width="24.33203125" customWidth="1" min="69" max="69"/>
-    <col width="28.33203125" customWidth="1" min="70" max="70"/>
-    <col width="28.44140625" customWidth="1" min="71" max="71"/>
-    <col width="25.21875" customWidth="1" min="72" max="72"/>
-    <col width="29.21875" customWidth="1" min="73" max="73"/>
-    <col width="28.88671875" customWidth="1" min="74" max="74"/>
-    <col width="20.44140625" customWidth="1" min="75" max="75"/>
-    <col width="32.21875" customWidth="1" min="76" max="76"/>
-    <col width="21.33203125" customWidth="1" min="77" max="77"/>
-    <col width="20.109375" customWidth="1" min="78" max="78"/>
-    <col width="29.21875" customWidth="1" min="79" max="79"/>
-    <col width="13.77734375" customWidth="1" min="80" max="80"/>
-    <col width="14.44140625" customWidth="1" min="81" max="81"/>
+    <col width="28.453125" customWidth="1" min="52" max="52"/>
+    <col width="25.90625" customWidth="1" min="53" max="53"/>
+    <col width="23.81640625" customWidth="1" min="54" max="54"/>
+    <col width="32.453125" customWidth="1" min="55" max="55"/>
+    <col width="19.81640625" customWidth="1" min="56" max="56"/>
+    <col width="19.90625" customWidth="1" min="57" max="57"/>
+    <col width="23.453125" customWidth="1" min="58" max="58"/>
+    <col width="24.1796875" customWidth="1" min="59" max="59"/>
+    <col width="22.81640625" customWidth="1" min="60" max="60"/>
+    <col width="30.453125" customWidth="1" min="61" max="61"/>
+    <col width="27.36328125" customWidth="1" min="62" max="62"/>
+    <col width="21.453125" customWidth="1" min="63" max="63"/>
+    <col width="26.08984375" customWidth="1" min="64" max="64"/>
+    <col width="23.08984375" customWidth="1" min="65" max="65"/>
+    <col width="23.1796875" customWidth="1" min="66" max="66"/>
+    <col width="30.1796875" customWidth="1" min="67" max="67"/>
+    <col width="24.1796875" customWidth="1" min="68" max="68"/>
+    <col width="24.36328125" customWidth="1" min="69" max="69"/>
+    <col width="28.36328125" customWidth="1" min="70" max="70"/>
+    <col width="28.453125" customWidth="1" min="71" max="71"/>
+    <col width="25.1796875" customWidth="1" min="72" max="72"/>
+    <col width="29.1796875" customWidth="1" min="73" max="73"/>
+    <col width="28.90625" customWidth="1" min="74" max="74"/>
+    <col width="20.453125" customWidth="1" min="75" max="75"/>
+    <col width="32.1796875" customWidth="1" min="76" max="76"/>
+    <col width="21.36328125" customWidth="1" min="77" max="77"/>
+    <col width="20.08984375" customWidth="1" min="78" max="78"/>
+    <col width="29.1796875" customWidth="1" min="79" max="79"/>
+    <col width="13.81640625" customWidth="1" min="80" max="80"/>
+    <col width="14.453125" customWidth="1" min="81" max="81"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -978,337 +1008,210 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>24/3/04</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>53.44</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>267.2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>10.43</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>38.67</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>370.8</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>70.4</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>89.5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>87.4</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>79.3</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>75.68</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>70.78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>92.5</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>88.6</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>75.9</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>41.7</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>36.7</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>84.80</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>56.96</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>67.2</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>84.80</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>49.26</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>76.3</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>42.64</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>74.8</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>55.66</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>56.70</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>101.9</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>88.1</t>
-        </is>
-      </c>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>88.1</t>
-        </is>
+          <t>16:05:20"</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P2" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="U2" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="V2" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>76.56</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>70.78</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>56.96</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>49.26</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>103</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>55.66</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -171,6 +171,34 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>80</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2762250" cy="10382250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -479,83 +507,83 @@
       <selection activeCell="BW2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.453125" customWidth="1" min="2" max="2"/>
-    <col width="12.6328125" customWidth="1" min="3" max="3"/>
-    <col width="15.453125" customWidth="1" min="4" max="4"/>
-    <col width="13.90625" customWidth="1" min="5" max="5"/>
-    <col width="12.81640625" customWidth="1" min="6" max="6"/>
-    <col width="10.453125" customWidth="1" min="12" max="12"/>
-    <col width="11.81640625" customWidth="1" min="13" max="13"/>
-    <col width="11.453125" customWidth="1" min="14" max="14"/>
-    <col width="12.453125" customWidth="1" min="15" max="15"/>
-    <col width="21.6328125" customWidth="1" min="16" max="16"/>
-    <col width="12.453125" customWidth="1" min="17" max="17"/>
-    <col width="11.90625" customWidth="1" min="18" max="18"/>
-    <col width="20.6328125" customWidth="1" min="19" max="19"/>
+    <col width="13.44140625" customWidth="1" min="2" max="2"/>
+    <col width="12.6640625" customWidth="1" min="3" max="3"/>
+    <col width="15.44140625" customWidth="1" min="4" max="4"/>
+    <col width="13.88671875" customWidth="1" min="5" max="5"/>
+    <col width="12.77734375" customWidth="1" min="6" max="6"/>
+    <col width="10.44140625" customWidth="1" min="12" max="12"/>
+    <col width="11.77734375" customWidth="1" min="13" max="13"/>
+    <col width="11.44140625" customWidth="1" min="14" max="14"/>
+    <col width="12.44140625" customWidth="1" min="15" max="15"/>
+    <col width="21.6640625" customWidth="1" min="16" max="16"/>
+    <col width="12.44140625" customWidth="1" min="17" max="17"/>
+    <col width="11.88671875" customWidth="1" min="18" max="18"/>
+    <col width="20.6640625" customWidth="1" min="19" max="19"/>
     <col width="17" customWidth="1" min="20" max="20"/>
-    <col width="15.08984375" customWidth="1" min="21" max="21"/>
-    <col width="21.81640625" customWidth="1" min="22" max="22"/>
-    <col width="19.453125" customWidth="1" min="23" max="23"/>
-    <col width="13.36328125" customWidth="1" min="24" max="24"/>
-    <col width="24.90625" customWidth="1" min="25" max="25"/>
-    <col width="15.36328125" customWidth="1" min="26" max="26"/>
+    <col width="15.109375" customWidth="1" min="21" max="21"/>
+    <col width="21.77734375" customWidth="1" min="22" max="22"/>
+    <col width="19.44140625" customWidth="1" min="23" max="23"/>
+    <col width="13.33203125" customWidth="1" min="24" max="24"/>
+    <col width="24.88671875" customWidth="1" min="25" max="25"/>
+    <col width="15.33203125" customWidth="1" min="26" max="26"/>
     <col width="16" customWidth="1" min="27" max="27"/>
-    <col width="24.453125" customWidth="1" min="28" max="28"/>
-    <col width="15.36328125" customWidth="1" min="29" max="29"/>
-    <col width="16.08984375" customWidth="1" min="30" max="30"/>
-    <col width="20.453125" customWidth="1" min="31" max="31"/>
-    <col width="16.6328125" customWidth="1" min="32" max="32"/>
-    <col width="15.6328125" customWidth="1" min="33" max="33"/>
-    <col width="23.453125" customWidth="1" min="34" max="34"/>
-    <col width="22.1796875" customWidth="1" min="35" max="35"/>
-    <col width="24.453125" customWidth="1" min="36" max="36"/>
-    <col width="34.6328125" customWidth="1" min="37" max="37"/>
-    <col width="29.453125" customWidth="1" min="38" max="38"/>
-    <col width="28.6328125" customWidth="1" min="39" max="39"/>
-    <col width="33.90625" customWidth="1" min="40" max="40"/>
-    <col width="18.6328125" customWidth="1" min="41" max="41"/>
-    <col width="23.36328125" customWidth="1" min="42" max="42"/>
-    <col width="28.453125" customWidth="1" min="43" max="43"/>
-    <col width="20.453125" customWidth="1" min="44" max="44"/>
-    <col width="25.1796875" customWidth="1" min="45" max="45"/>
-    <col width="29.08984375" customWidth="1" min="46" max="46"/>
-    <col width="22.453125" customWidth="1" min="47" max="47"/>
-    <col width="21.81640625" customWidth="1" min="48" max="48"/>
-    <col width="25.453125" customWidth="1" min="49" max="49"/>
-    <col width="22.453125" customWidth="1" min="50" max="50"/>
+    <col width="24.44140625" customWidth="1" min="28" max="28"/>
+    <col width="15.33203125" customWidth="1" min="29" max="29"/>
+    <col width="16.109375" customWidth="1" min="30" max="30"/>
+    <col width="20.44140625" customWidth="1" min="31" max="31"/>
+    <col width="16.6640625" customWidth="1" min="32" max="32"/>
+    <col width="15.6640625" customWidth="1" min="33" max="33"/>
+    <col width="23.44140625" customWidth="1" min="34" max="34"/>
+    <col width="22.21875" customWidth="1" min="35" max="35"/>
+    <col width="24.44140625" customWidth="1" min="36" max="36"/>
+    <col width="34.6640625" customWidth="1" min="37" max="37"/>
+    <col width="29.44140625" customWidth="1" min="38" max="38"/>
+    <col width="28.6640625" customWidth="1" min="39" max="39"/>
+    <col width="33.88671875" customWidth="1" min="40" max="40"/>
+    <col width="18.6640625" customWidth="1" min="41" max="41"/>
+    <col width="23.33203125" customWidth="1" min="42" max="42"/>
+    <col width="28.44140625" customWidth="1" min="43" max="43"/>
+    <col width="20.44140625" customWidth="1" min="44" max="44"/>
+    <col width="25.21875" customWidth="1" min="45" max="45"/>
+    <col width="29.109375" customWidth="1" min="46" max="46"/>
+    <col width="22.44140625" customWidth="1" min="47" max="47"/>
+    <col width="21.77734375" customWidth="1" min="48" max="48"/>
+    <col width="25.44140625" customWidth="1" min="49" max="49"/>
+    <col width="22.44140625" customWidth="1" min="50" max="50"/>
     <col width="25" customWidth="1" min="51" max="51"/>
-    <col width="28.453125" customWidth="1" min="52" max="52"/>
-    <col width="25.90625" customWidth="1" min="53" max="53"/>
-    <col width="23.81640625" customWidth="1" min="54" max="54"/>
-    <col width="32.453125" customWidth="1" min="55" max="55"/>
-    <col width="19.81640625" customWidth="1" min="56" max="56"/>
-    <col width="19.90625" customWidth="1" min="57" max="57"/>
-    <col width="23.453125" customWidth="1" min="58" max="58"/>
-    <col width="24.1796875" customWidth="1" min="59" max="59"/>
-    <col width="22.81640625" customWidth="1" min="60" max="60"/>
-    <col width="30.453125" customWidth="1" min="61" max="61"/>
-    <col width="27.36328125" customWidth="1" min="62" max="62"/>
-    <col width="21.453125" customWidth="1" min="63" max="63"/>
-    <col width="26.08984375" customWidth="1" min="64" max="64"/>
-    <col width="23.08984375" customWidth="1" min="65" max="65"/>
-    <col width="23.1796875" customWidth="1" min="66" max="66"/>
-    <col width="30.1796875" customWidth="1" min="67" max="67"/>
-    <col width="24.1796875" customWidth="1" min="68" max="68"/>
-    <col width="24.36328125" customWidth="1" min="69" max="69"/>
-    <col width="28.36328125" customWidth="1" min="70" max="70"/>
-    <col width="28.453125" customWidth="1" min="71" max="71"/>
-    <col width="25.1796875" customWidth="1" min="72" max="72"/>
-    <col width="29.1796875" customWidth="1" min="73" max="73"/>
-    <col width="28.90625" customWidth="1" min="74" max="74"/>
-    <col width="20.453125" customWidth="1" min="75" max="75"/>
-    <col width="32.1796875" customWidth="1" min="76" max="76"/>
-    <col width="21.36328125" customWidth="1" min="77" max="77"/>
-    <col width="20.08984375" customWidth="1" min="78" max="78"/>
-    <col width="29.1796875" customWidth="1" min="79" max="79"/>
-    <col width="13.81640625" customWidth="1" min="80" max="80"/>
-    <col width="14.453125" customWidth="1" min="81" max="81"/>
+    <col width="28.44140625" customWidth="1" min="52" max="52"/>
+    <col width="25.88671875" customWidth="1" min="53" max="53"/>
+    <col width="23.77734375" customWidth="1" min="54" max="54"/>
+    <col width="32.44140625" customWidth="1" min="55" max="55"/>
+    <col width="19.77734375" customWidth="1" min="56" max="56"/>
+    <col width="19.88671875" customWidth="1" min="57" max="57"/>
+    <col width="23.44140625" customWidth="1" min="58" max="58"/>
+    <col width="24.21875" customWidth="1" min="59" max="59"/>
+    <col width="22.77734375" customWidth="1" min="60" max="60"/>
+    <col width="30.44140625" customWidth="1" min="61" max="61"/>
+    <col width="27.33203125" customWidth="1" min="62" max="62"/>
+    <col width="21.44140625" customWidth="1" min="63" max="63"/>
+    <col width="26.109375" customWidth="1" min="64" max="64"/>
+    <col width="23.109375" customWidth="1" min="65" max="65"/>
+    <col width="23.21875" customWidth="1" min="66" max="66"/>
+    <col width="30.21875" customWidth="1" min="67" max="67"/>
+    <col width="24.21875" customWidth="1" min="68" max="68"/>
+    <col width="24.33203125" customWidth="1" min="69" max="69"/>
+    <col width="28.33203125" customWidth="1" min="70" max="70"/>
+    <col width="28.44140625" customWidth="1" min="71" max="71"/>
+    <col width="25.21875" customWidth="1" min="72" max="72"/>
+    <col width="29.21875" customWidth="1" min="73" max="73"/>
+    <col width="28.88671875" customWidth="1" min="74" max="74"/>
+    <col width="20.44140625" customWidth="1" min="75" max="75"/>
+    <col width="32.21875" customWidth="1" min="76" max="76"/>
+    <col width="21.33203125" customWidth="1" min="77" max="77"/>
+    <col width="20.109375" customWidth="1" min="78" max="78"/>
+    <col width="29.21875" customWidth="1" min="79" max="79"/>
+    <col width="13.77734375" customWidth="1" min="80" max="80"/>
+    <col width="14.44140625" customWidth="1" min="81" max="81"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/template.xlsx
+++ b/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7800" yWindow="3375" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -166,7 +166,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2762250" cy="4286250"/>
+    <ext cx="2762250" cy="4762500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -174,118 +174,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>80</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2762250" cy="4286250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>80</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2762250" cy="4762500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>80</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2762250" cy="4762500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>80</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2762250" cy="4762500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -591,7 +479,7 @@
   <dimension ref="A1:CC2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BY1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="CC1" sqref="CC1:CC1048576"/>
+      <selection activeCell="CC2" sqref="CC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -668,7 +556,7 @@
     <col width="20.125" customWidth="1" min="78" max="78"/>
     <col width="29.125" customWidth="1" min="79" max="79"/>
     <col width="13.875" customWidth="1" min="80" max="80"/>
-    <col width="36" customWidth="1" min="81" max="81"/>
+    <col width="36.3" customWidth="1" min="81" max="81"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/template.xlsx
+++ b/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -73,10 +73,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -163,7 +166,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2762250" cy="10382250"/>
+    <ext cx="2762250" cy="4762500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -171,34 +174,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>80</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2762250" cy="10382250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -503,8 +478,8 @@
   </sheetPr>
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BW2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BX16" sqref="BX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -583,7 +558,7 @@
     <col width="20.109375" customWidth="1" min="78" max="78"/>
     <col width="29.21875" customWidth="1" min="79" max="79"/>
     <col width="13.77734375" customWidth="1" min="80" max="80"/>
-    <col width="14.44140625" customWidth="1" min="81" max="81"/>
+    <col width="36.3" customWidth="1" min="81" max="81"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -993,250 +968,256 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="380" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>杨会琴</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>16889648-19</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>1973315</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>1957/11/30</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>160Cm</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>73kg</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>66岁</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>24/3/04</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>16:05:20"</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="2" t="n">
         <v>138.8</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="2" t="n">
         <v>53.44</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="2" t="n">
         <v>267.2</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="2" t="n">
         <v>10.43</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="2" t="n">
         <v>38.67</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="2" t="n">
         <v>370.8</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="2" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="2" t="n">
         <v>2.59</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>89.5</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>2.17</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>1.64</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>79.3</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AI2" s="2" t="n"/>
+      <c r="AJ2" s="2" t="n">
         <v>75.68000000000001</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AK2" s="2" t="n"/>
+      <c r="AL2" s="2" t="n">
         <v>76.56</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>70.78</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>92.5</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>5.71</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>5.06</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>3.87</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>3.43</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2" s="2" t="n">
         <v>1.14</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2" s="2" t="n">
         <v>40.6</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2" s="2" t="n">
         <v>2.68</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2" s="2" t="n">
         <v>0.98</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2" s="2" t="n">
         <v>36.7</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2" s="2" t="n">
         <v>84.8</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2" s="2" t="n">
         <v>56.96</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2" s="2" t="n">
         <v>67.2</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2" s="2" t="n">
         <v>84.8</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2" s="2" t="n">
         <v>49.26</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2" s="2" t="n">
         <v>58.1</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2" s="2" t="n">
         <v>4.77</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2" s="2" t="n">
         <v>3.49</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2" s="2" t="n">
         <v>73.2</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2" s="2" t="n">
         <v>41.4</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2" s="2" t="n">
         <v>42.64</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2" s="2" t="n">
         <v>1.98</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2" s="2" t="n">
         <v>74.8</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2" s="2" t="n">
         <v>55.66</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2" s="2" t="n">
         <v>56.7</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2" s="2" t="n">
         <v>101.9</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2" s="2" t="n">
         <v>7.11</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2" s="2" t="n">
         <v>6.27</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
     </row>
+    <row r="3" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -174,6 +174,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>80</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2762250" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -476,10 +501,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC2"/>
+  <dimension ref="A1:CC3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BX16" sqref="BX16"/>
+      <selection activeCell="CB2" sqref="CB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -557,8 +582,7 @@
     <col width="21.33203125" customWidth="1" min="77" max="77"/>
     <col width="20.109375" customWidth="1" min="78" max="78"/>
     <col width="29.21875" customWidth="1" min="79" max="79"/>
-    <col width="13.77734375" customWidth="1" min="80" max="80"/>
-    <col width="36.3" customWidth="1" min="81" max="81"/>
+    <col width="40" customWidth="1" min="80" max="82"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1217,7 +1241,247 @@
         <v>88.09999999999999</v>
       </c>
     </row>
-    <row r="3" ht="12" customHeight="1"/>
+    <row r="3" ht="380" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>杨会琴</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>16889648-19</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1973315</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>1957/11/30</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>160Cm</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>73kg</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>66岁</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>267.2</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="AI3" s="2" t="n"/>
+      <c r="AJ3" s="2" t="n">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="AK3" s="2" t="n"/>
+      <c r="AL3" s="2" t="n">
+        <v>76.56</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>70.78</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>56.96</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="BG3" s="2" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="BH3" s="2" t="n">
+        <v>49.26</v>
+      </c>
+      <c r="BI3" s="2" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="BJ3" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK3" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL3" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="BM3" s="2" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="BN3" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BO3" s="2" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="BP3" s="2" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="BQ3" s="2" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="BR3" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="BS3" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BT3" s="2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BU3" s="2" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="BV3" s="2" t="n">
+        <v>55.66</v>
+      </c>
+      <c r="BW3" s="2" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="BX3" s="2" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="BY3" s="2" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="BZ3" s="2" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="CA3" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="4" ht="379.95" customHeight="1"/>
+    <row r="5" ht="379.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeWorkspace\OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42148FB3-C048-4F98-B744-D10D7A1645BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD5387A-6E4F-40C8-A48A-C2682E02FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CA3" sqref="CA3"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CB2" sqref="CB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
